--- a/UEP/Florian_DOFFEMONT_M1DSC.xlsx
+++ b/UEP/Florian_DOFFEMONT_M1DSC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\M1_DSC\UEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAC1D1E-5514-4CB9-BD98-88CB2FC3BD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905BC38B-5290-436E-89B5-3303F4439475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86A2D31D-E625-42AE-BF18-E0063C9C86F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Action</t>
   </si>
@@ -53,15 +53,9 @@
     <t>Refaire le CV</t>
   </si>
   <si>
-    <t>Faire un squelette de Lettre de Motiv</t>
-  </si>
-  <si>
     <t>Faire un beau Linkedin</t>
   </si>
   <si>
-    <t>Gagner du temps lors de la confection de la Lettre de Motivation</t>
-  </si>
-  <si>
     <t>Faire un post sur Linkedin</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>https://www.linkedin.com/in/florian-doffemont/</t>
   </si>
   <si>
-    <t>Faire mon entretien téléphonique avec la société Astree Software</t>
-  </si>
-  <si>
     <t>Passer l'entretien 'physique' et l'entretien technique chez la société Astree Software</t>
   </si>
   <si>
@@ -89,30 +80,12 @@
     <t>Linkedin</t>
   </si>
   <si>
-    <t>Parler un peu de moi, de mes objectif, Faire bonne impression, Prendre un redez-vous pour le vrai entretien</t>
-  </si>
-  <si>
     <t>Message Linkedin</t>
   </si>
   <si>
     <t>Tuto, guide pour réussir a passer un entretien</t>
   </si>
   <si>
-    <t>Spetembre</t>
-  </si>
-  <si>
-    <t>Septembre</t>
-  </si>
-  <si>
-    <t>Septembre - Octobre</t>
-  </si>
-  <si>
-    <t>Rencontrer un cadre de l'entreprise</t>
-  </si>
-  <si>
-    <t>Rencontrer la RH de l'entreprise. Réussir a bien me vendre, Passer les test techniques !</t>
-  </si>
-  <si>
     <t>Faire jouer mes relations pour avoir un stage</t>
   </si>
   <si>
@@ -131,19 +104,10 @@
     <t>Site de stage - emplois</t>
   </si>
   <si>
-    <t>Créer un Portfolio avec tout les projet que j'ai éffectué</t>
-  </si>
-  <si>
     <t>Montrer ce que je peux faire, mes compétances</t>
   </si>
   <si>
     <t>Dev, Web, PDF</t>
-  </si>
-  <si>
-    <t>Mettre en avant mes compétences et mon parcours sur un support bien fait</t>
-  </si>
-  <si>
-    <t>Me mettre en avant, me vendre mes compétence et moi</t>
   </si>
   <si>
     <r>
@@ -204,6 +168,42 @@
       </rPr>
       <t>PAS FAIT</t>
     </r>
+  </si>
+  <si>
+    <t>Faire un squelette de Lettre de Motivation</t>
+  </si>
+  <si>
+    <t>Réponse pour le Stage chez Astrée Software</t>
+  </si>
+  <si>
+    <t>Réponse Positive ! J'arrête donc les recherches de stage. Mais je vais quand même faire un portfolio</t>
+  </si>
+  <si>
+    <t>Téléphone</t>
+  </si>
+  <si>
+    <t>Mettre en avant mes compétences et mon parcours sur un support bien fait. Je l'avais déjà fait avant la rentrée</t>
+  </si>
+  <si>
+    <t>Faire mon entretien téléphonique avec la société Astree Software (Contacté via Linkedin)</t>
+  </si>
+  <si>
+    <t>Me mettre en avant, me vendre mes compétences et moi. Je l'avais déjà fait avant la rentré</t>
+  </si>
+  <si>
+    <t>Parler un peu de moi, de mes objectifs, Faire bonne impression, Prendre un rendez-vous pour le 'vrai' entretien</t>
+  </si>
+  <si>
+    <t>Gagner du temps lors de la rédaction de la Lettre de Motivation</t>
+  </si>
+  <si>
+    <t>Rencontrer la RH de l'entreprise. Réussir a bien me vendre, Passer les tests techniques !</t>
+  </si>
+  <si>
+    <t>Rencontrer un cadre de l'entreprise, exposer mon projet professionnel.</t>
+  </si>
+  <si>
+    <t>Créer un Portfolio avec tout les projets que j'ai éffectué</t>
   </si>
 </sst>
 </file>
@@ -298,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,10 +318,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -456,14 +459,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA26464B-62A4-4E09-AAE6-D67FD32ACA39}" name="Tableau1" displayName="Tableau1" ref="D3:H34" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA26464B-62A4-4E09-AAE6-D67FD32ACA39}" name="Tableau1" displayName="Tableau1" ref="D3:H34" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="D3:H34" xr:uid="{DA26464B-62A4-4E09-AAE6-D67FD32ACA39}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D4:H34">
+    <sortCondition ref="F3:F34"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DA5E86F3-B7DA-4DD7-9250-01D6CA59033B}" name="Action" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{7F1CB9B1-F9D8-4591-A331-86F1F1F871E7}" name="Objectif" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B43AE4E9-605D-4A65-A7FB-E2E2ED1BFA94}" name="Échéance" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{3AA9E4BC-42A2-4955-8697-DC6A776CF9F4}" name="Ressource(s)" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E6AF93F7-0807-4C8A-9309-8E8018C1F43D}" name="Résultat                                                                FAIT | EN COURS | PAS FAIT" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DA5E86F3-B7DA-4DD7-9250-01D6CA59033B}" name="Action" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7F1CB9B1-F9D8-4591-A331-86F1F1F871E7}" name="Objectif" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B43AE4E9-605D-4A65-A7FB-E2E2ED1BFA94}" name="Échéance" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{3AA9E4BC-42A2-4955-8697-DC6A776CF9F4}" name="Ressource(s)" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{E6AF93F7-0807-4C8A-9309-8E8018C1F43D}" name="Résultat                                                                FAIT | EN COURS | PAS FAIT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -766,10 +772,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD35F25-6EF3-49C2-9C43-34507ED512C4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="D3:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="4:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -799,13 +808,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="F4" s="8">
+        <v>44793</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -814,142 +823,150 @@
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="F5" s="8">
+        <v>44793</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="4:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="F6" s="8">
+        <v>44806</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="4:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44824</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="4:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="F8" s="8">
+        <v>44827</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="4:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="F9" s="8">
+        <v>44855</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="4:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="F10" s="8">
+        <v>44858</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="4:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="F11" s="8">
+        <v>44864</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="4:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="F12" s="8">
+        <v>44895</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="4:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F13" s="8">
+        <v>44895</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="4:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8">
+        <v>44895</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="4:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
@@ -1093,10 +1110,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{DC8E77BB-4872-476C-BF69-5D4A269F84A7}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{DC8E77BB-4872-476C-BF69-5D4A269F84A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="21" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
